--- a/Scrape/Sasi/SasiEyes.xlsx
+++ b/Scrape/Sasi/SasiEyes.xlsx
@@ -110,7 +110,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1716265614-1</t>
+          <t>1717926500-1</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -135,12 +135,12 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/mizumi/mizumi-uv-bright-body-serum-180ml-71109.html</t>
+          <t>https://www.konvy.com/the-ordinary/the-ordinary-alpha-arbutin-2-%2b-ha-serum-30ml-24342.html</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/0408/16493934299808.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0825/16929373414648.jpg.webp</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -150,14 +150,14 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>Mizumi Uv Bright Body Serum 180ml ครีมกันแดดสำหรับผิวกาย จากมิซึมิ ปกป้องผิวสูงสุดจากรังสียูวี พร้อมการบำรุงผิวด้วยสารสกัดดอกซากุระและKakadu Plum เผยผิวดูกระจ่างใส</t>
+          <t>The Ordinary Alpha Arbutin 2% + HA Serum 30ml เซรั่มสูตรน้ำที่ออกแบบมาโดยเฉพาะเพื่อลดเลือนจุดด่างดำและสีผิวไม่สม่ำเสมอ ผสานความเข้มข้นสูงของอัลฟ่าอาร์บูตินบริสุทธิ์เข้ากับกรดไฮยาลูโรนิก ลดเลือนจุดด่างดำ เนื้อเซรั่มซึมซาบเร็ว ช่วยให้ผิวแลดูกระจ่างใส รอยสิวดูจางลง ผิวดูสุขภาพดี</t>
         </is>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1716265618-2</t>
+          <t>1717926503-2</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -182,12 +182,12 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/oni/oni-4-blades-smooth-razor-set-2-refills-87155.html</t>
+          <t>https://www.konvy.com/nu-formula/nu-formula-pro-white-essence-lotion-%5b150ml-x-2pcs%5d-98077.html</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2024/0528/17168664361033.jpg.webp</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
@@ -197,14 +197,14 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>Oni 4 Blades Smooth Razor Set 2 Refills โอนิ มีดโกนขน สำหรับผู้หญิง พร้อมใบมีด 2ชิ้น ใช้ได้แม้ผิวแพ้ง่าย ใบมีดโกน 4ใบ โกนได้อย่างอ่อนโยน หัวมีดโกนที่ปรับเข้ากับส่วนโค้งของผิวได้อย่างสมบูรณ์แบบ มีแถบหล่อลื่นช่วยในการโกนด้วยสัมผัสของว่านหางจระเข้และวิตามินอี</t>
+          <t>Nu Formula Pro White Essence Lotion [150ml x 2pcs] เอสเซนส์บูสต์ผิวกระจ่างใส จากนู ฟอร์มูล่า ด้วย Active White Booster พร้อมฟังก์ชั่น 3in1 ของเอสเซนส์+โลชั่น+แอมพูล สูตรเข้มข้นแต่บางเบา ซึมซาบเร็ว ไม่อุดตันผิว บำรุงอย่างล้ำลึกในขั้นตอนเดียว</t>
         </is>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1716265620-3</t>
+          <t>1717926505-3</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -229,12 +229,12 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/jkxlab/jkxlab-ex-a-body-cream-200g-90464.html</t>
+          <t>https://www.konvy.com/laneige/laneige-set-2-items-lip-sleeping-mask-mini-8g-%2b-lip-sleeping-mask-3g-53514.html</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0925/16956258361121.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0101/17040446796184.jpg.webp</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
@@ -244,14 +244,14 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>JKxLab EX-A Body Cream 200g ครีมบำรุงผิวกายเข้มข้น จากเจเคเอ็กซ์แล็บ พิเศษด้วย 10% AHA ผลัดผิวเก่า ดุจเปิดผิวใหม่ สร้างผิวใส ปรับผิวนุ่ม พร้อมเสริมชั้นผิวให้ความเรียบเนียน</t>
+          <t>Laneige Set 2 Items Lip Sleeping Mask Mini 8g + Lip Sleeping Mask 3g ปากชุ่มชื่น เอิบอิ่ม น่าจุ๊บ ด้วยลิปสลีปปิ้งมาสก์จากลาเนจ บำรุงริมฝีปากล้ำลึกและเหนือชั้นด้วยลิปมาสก์เนื้อเข้มข้น่วยลดความแห้งกร้าน ฟื้นฟูให้ริมฝีปากนุ่มเนียนชวนสัมผัสยามตื่นนอน</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1716265623-4</t>
+          <t>1717926507-4</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -276,12 +276,12 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/some-by-mi/some-by-mi-aha-bha-pha-30days-miracle-serum-light-50ml-60288.html</t>
+          <t>https://www.konvy.com/la-roche-posay/la-roche-posay-anthelios-uv-mune-400-invisible-fluid-50ml-78078.html</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2022/1027/16668451048530.jpg.webp</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
@@ -291,14 +291,14 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>Some By Mi AHA-BHA-PHA 30Days Miracle Serum Light 50ml จัดการทุกปัญหาผิวได้อย่างง่ายดายด้วยเซรั่มบำรุงผิวหน้า สูตรบางเบา จากซัมบายมี มีส่วนผสมหลักจากธรรมชาติ ซึ่งอ่อนโยนต่อทุกสภาพผิว ช่วยผลัดเซลล์ผิว ลดสิว พร้อมกระชับรูขุมขน เผยผิวกระจ่างใสขึ้น</t>
+          <t>La Roche Posay Anthelios UV Mune 400 Invisible Fluid 50ml กันแดดเนื้อฟลููอิดบางเบา ไม่เหนอะหนะ จากลาโรช โพเซย์ ช่วยปกป้องผิวจากการถูกทำร้ายของรังสี UV รวมถึง Ultra-Long UVA อินฟราเรด ฝุ่น และมลภาวะ</t>
         </is>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>1716265628-5</t>
+          <t>1717926510-5</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -323,12 +323,12 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/biotherm/biotherm-life-plankton-essence-30ml-48511.html</t>
+          <t>https://www.konvy.com/anua/anua-heartleaf-77-soothing-toner-500ml-77436.html</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/0621/16557794623799.jpg</t>
+          <t>https://s2.konvy.com/static/team/2022/0929/16644419475444.jpg.webp</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
@@ -338,14 +338,14 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>Biotherm Life Plankton Essence 30ml น้ำตบไลฟ์แพลงตอนที่ได้รับความนิยมตลอดกาล จากไบโอเธิร์ม เอสเซนส์เนื้อสัมผัสสดชื่นบางเบาดุจน้ำ อุดมไปด้วยส่วนผสมของ Life Plankton 5% ช่วยปลอบประโลมและลดการระคายเคืองผิว ผลัดเซลล์ผิวเสื่อมสภาพและหมองคล้ำอย่างอ่อนโยน รูขุมขนกระชับ ผิวละเอียดและกระจ่างใสขึ้น เผยผิวเปล่งปลั่งที่แลดูอ่อนเยาว์</t>
+          <t>ANUA Heartleaf 77% Soothing Toner 500ml ไซส์ใหญ่สะใจ! กับโทนเนอร์สุดฮอตจากโลกทวิตเตอร์ที่ใครลองก็หลงรัก จากอานัว ช่วยปลอบประโลมผิวและลดการอักเสบ ด้วยสารสกัดฮาร์ทลีฟถึง 77% เนื้อสัมผัสบางเบา ปราศจากน้ำหอมและสารเคมีอันตราย เหมาะกับทุกสภาพผิว โดยเฉพาะผิวระคายเคือง เป็นสิวและผดผื่น</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>1716265631-6</t>
+          <t>1717926512-6</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -370,12 +370,12 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/biotherm/biotherm-life-plankton-elixir-fundamental-regenerating-treatment-7ml-53686.html</t>
+          <t>https://www.konvy.com/la-roche-posay/la-roche-posay-effaclar-serum-30ml-52478.html</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/0606/16545090898804.jpg</t>
+          <t>https://s2.konvy.com/static/team/2020/1027/16037906661187.jpg.webp</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
@@ -385,14 +385,14 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>Biotherm Life Plankton Elixir Fundamental Regenerating Treatment 7ml ฟื้นบำรุงขั้นสุดกับเซรั่มแพลงก์ตอน จากไบโอเธิร์ม ด้วยส่วนผสม LIFE PLANKTON™ ในความเข้มข้น 5 %^ ช่วยให้ผิวแข็งแรงขึ้น ดูแลการร่วงโรยของผิว ทั้งยังช่วยให้ผิวดูอ่อนเยาว์ กระจ่างใส กระชับ และเรียบเนียนขึ้น</t>
+          <t>La Roche Posay Effaclar Serum 30ml เซรั่มที่ทรงประสิทธิภาพ จากลา โรช-โพเซย์ ด้วยพลังจาก 3 โมเลกุล สำหรับจัดการต้นตอปัญหาสิวอุดตันและรอยดำที่เกิดจากสิว ช่วยปลอบประโลม มอบความชุ่มชื้นสบายผิวด้วย Niacinamide</t>
         </is>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>1716265635-7</t>
+          <t>1717926514-7</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -417,12 +417,12 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/cerave/cerave-facial-moisturizing-lotion-52ml-37951.html</t>
+          <t>https://www.konvy.com/estee-lauder/estee-lauder-revitalizing-supreme%2b-bright-power-soft-creme-15ml-79776.html</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0101/17040423499813.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0208/16758286715251.jpg.webp</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
@@ -432,14 +432,14 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>CeraVe Facial Moisturizing Lotion 52ml โลชั่นบำรุงผิวหน้า สำหรับผิวธรรมดาถึงผิวแห้ง จากเซราวี อุดมด้วยเซราไมด์ที่จำเป็นต่อผิว 3 ชนิดผสานไฮยาลูรอนิกแอซิด ช่วยเติมความชุ่มชื้นและเสริมสร้างปราการปกป้องผิว เพื่อสัมผัสเนียนนุ่มยาวนานตลอดวัน</t>
+          <t>Estee Lauder Revitalizing Supreme+ Bright Power Soft Creme 15ml มอยส์เจอร์ไรเซอร์สูตรใหม่เพื่อผิวแลดูสว่างกระจ่างใส จากเอสเต ลอเดอร์ ผสานพลังการบำรุงจาก 3 สารสกัดอันทรงพลัง มะรุม บิวตี้เบอรี่ และวิตามินซี ช่วยลดเลือนจุดด่างดำ และมอบสีผิวดูเรียบเนียนสม่ำเสมอ เปล่งประกายสดใสเป็นธรรมชาติ</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>1716265638-8</t>
+          <t>1717926517-8</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -464,12 +464,12 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/hatomugi/hatomugi-skin-conditioner-gel-180g-16125.html</t>
+          <t>https://www.konvy.com/la-mer/la-mer-the-treatment-lotion-30ml-62144.html</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0101/17040426442600.jpg</t>
+          <t>https://s2.konvy.com/static/team/2022/0909/16626905612806.jpg.webp</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
@@ -479,14 +479,14 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>Hatomugi Skin Conditioner Gel 180g ผิวดูอิ่มน้ำ สวยเปล่งประกาย ดูสุขภาพดี ด้วยเจลบำรุงผิว จากฮาโตะมูกิ ที่มีส่วนผสมของสารสกัดจากข้าวบาร์เล่ย์และลูกเดือยธรรมชาติ ช่วยเก็บกักความชุ่มชื้นให้ผิวได้อย่างยาวนาน พร้อมช่วยลดอาการผิวไหม้จากแดดอีกด้วย</t>
+          <t>La Mer the Treatment Lotion 30ml เพื่อการบำรุงขั้นตอนต่อไปดูแลด้วยโลชั่นบำรุงผิวสูตรน้ำ จากลาแมร์ มอบความรู้สึกมีชีวิตชีวาให้แก่ผิวด้วย Liquid Energy ที่ช่วยให้ผลิตภัณฑ์ซึมลงสู่ผิวอย่างรวดเร็ว ให้ความชุ่มชื้น มอบผิวแลดูนุ่มเรียบเนียนสม่ำเสมอ</t>
         </is>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>1716265641-9</t>
+          <t>1717926519-9</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/atopalm/atopalm-mle-lotion-120ml-70526.html</t>
+          <t>https://www.konvy.com/anua/anua-heartleaf-77-soothing-toner-250ml-49595.html</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2023/1017/16975166198509.jpg.webp</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
@@ -526,14 +526,14 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>ATOPALM Mle Lotion 120ml โลชั่นบำรุงผิวหน้าและผิวกายสูตร MLEâ จากอโทปาล์ม ช่วยเสริมความแข็งแรงของผิวชั้นนอก ให้ผิวคงความชุ่มชื่นได้ยาวนานถึง 48 ชั่วโมง ด้วยเซราไมด์สิทธิบัตรของนีโอฟาร์ม อะมิโน แอซิด 5 ชนิด และไฮยาลูรอนิค</t>
+          <t>ANUA Heartleaf 77% Soothing Toner 250ml โทนเนอร์สุดฮอตจากโลกทวิตเตอร์ที่ใครลองก็หลงรัก จากอานัว ช่วยปลอบประโลมผิวและลดการอักเสบ ด้วยสารสกัดฮาร์ทลีฟถึง 77% เนื้อสัมผัสบางเบา ปราศจากน้ำหอมและสารเคมีอันตราย เหมาะกับทุกสภาพผิว โดยเฉพาะผิวระคายเคือง เป็นสิวและผดผื่น</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>1716265644-10</t>
+          <t>1717926521-10</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -553,17 +553,17 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>ฟรี</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/chame/chame-hydrolyzed-collagen-tripeptide-plus-10-sachets-39394.html</t>
+          <t>https://www.konvy.com/bioderma/bioderma-sensibio-h2o-cleansing-%5b500ml-x-2pcs%5d-14863.html</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/0704/16569275054332.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0101/17040426648129.jpg.webp</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
@@ -573,14 +573,14 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>Chame Hydrolyzed Collagen Tripeptide Plus 10 Sachet ผลิตภัณฑ์เสริมอาหารคอลลาเจนชนิดผง รสตรอว์เบอร์รี่ จากชาเม่</t>
+          <t>Bioderma Sensibio H2O Cleansing [500ml x 2pcs] คลีนซิ่งไบโอมิเมติก ไมเซล่าวอเตอร์ คลีนซิ่งสูตรอ่อนโยน สำหรับผิวบอบบางแพ้ง่าย ทำความสะอาดล้ำลึกและอ่อนโยน เพราะ ผิวต้องเจอการเสียดสี เครื่องสำอาง ฝุ่น PM2.5 รวมถึงเหงื่อและแบคทีเรียที่คอยกระตุ้นให้เกิดสิวผิวแพ้</t>
         </is>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>1716265646-11</t>
+          <t>1717926524-11</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -605,12 +605,12 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/oni/oni-sweats-%26-oil-blotting-paper-100-sheets-rose-93867.html</t>
+          <t>https://www.konvy.com/loccitane/l%27occitane-immortelle-overnight-reset-oil-in-serum-50ml-%5bnew-formula%5d-42050.html</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0422/17137744954489.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0202/16753097415435.jpg.webp</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
@@ -620,14 +620,14 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>Oni Sweats &amp; Oil Blotting Paper 100 Sheets #Rose กระดาษซับมัน เนื้อนุ่ม จากโอนิ ช่วยดูดซับความมันส่วนเกินบนใบหน้าได้เป็นอย่างดี อ่อนโยนต่อผิว ไม่ก่อให้เกิดการระคายเคือง บรรจุในซองอย่างดี น่ารัก สะดวกพกพาง่าย</t>
+          <t>L'Occitane Immortelle Overnight Reset Oil-in-serum 50ml (New Formula) ให้คุณสัมผัสผิวแลดูอ่อนเยาว์ สดใสด้วยผลิตภัณฑ์ขายดีที่สุดอันดับ 1 ที่มียอดขายทั่วโลกมากกว่า 1 ขวดต่อนาทีกับเซรั่มเนื้ออยล์ จากล็อกซิทาน ช่วยให้ริ้วรอยร่องตื้นดูเต็มขึ้น พร้อมเผยผิวอิ่มเอิบ รีเซ็ตผิวให้กระจ่างใส เปล่งประกายออร่าในทุกๆ วัน</t>
         </is>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>1716265649-12</t>
+          <t>1717926526-12</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/jkxlab/jkxlab-rp-retinoids-peptides-serum-30ml-90463.html</t>
+          <t>https://www.konvy.com/la-mer/la-mer-the-moisturizing-cream-3.5ml-2390.html</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0925/16956251509582.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0829/16932966918637.jpg.webp</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>JKxLab RP Retinoids Peptides Serum 30ml เรตินอยด์เซรั่มที่ถูกออกแบบมาให้ตอบโจทย์ผู้ที่มีริ้วรอยก่อนวัย มีความหย่อนคล้อยของผิว จากเจเคเอ็กซ์แล็บ เข้มข้นด้วยอนุพันธ์วิตามินเอ เรตินอยด์ x2 ในรูปแบบอ่อนโยนพิเศษ เหมาะสำหรับคนผิวแพ้ง่าย ผ่านการทดสอบการระคายเคือง</t>
+          <t>La Mer The Moisturizing Cream 3.5ml มอยเจอร์ไรเซอร์บำรุงผิว เนื้อครีมเข้มข้น มอบการบำรุงอย่างล้ำลึกด้วยน้ำสกัดเข้มข้น Miracle Broth™ หัวใจหลักสำคัญในการฟื้นบำรุงผิวของลาแมร์ มอบความชุ่มชื่นอย่างล้ำลึก ให้ผิวแลดูมีชีวิตชีวา กระจ่างใส</t>
         </is>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>1716265651-13</t>
+          <t>1717926528-13</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -699,12 +699,12 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/nars/nars-soft-matte-complete-concealer-6.2g-medium-1-custard-40706.html</t>
+          <t>https://www.konvy.com/lion/lion-pair-acne-cream-w-24g-6706.html</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2019/0826/15668115322264.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0305/17096252653997.jpg.webp</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
@@ -714,14 +714,14 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>NARS Soft Matte Complete Concealer 6.2g #Medium 1 Custard คอนซีลเลอร์ครีมเนื้อแมทสูตรปราศจากน้ำมัน จากนาร์ส ช่วยปกปิดได้ดีโดยไม่เป็นคราบ ด้วยเทคโนโลยี Optimal Diffusion Powder ช่วยกระจายแสงและปิดรอยต่างๆ ได้เนียนสวย ติดทนนาน</t>
+          <t>Lion Pair Acne Cream W 24g ครีมแต้มสิวจากญี่ปุ่น จากไลอ้อน ลดอาการบวม แดง เนื่องจากสิวอักเสบ ช่วยให้สิวยุบเร็วขึ้นและไม่ทิ้งรอยแผลเป็นหลังสิวหาย อีกทั้งยังลดอัตราการเกิดสิว</t>
         </is>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>1716265653-14</t>
+          <t>1717926531-14</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/bvlgari/bvlgari-man-in-black-edp-60ml-80741.html</t>
+          <t>https://www.konvy.com/nu-formula/nu-formula-mineral-cleansing-water-for-sensitive-skin-510ml-5063.html</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2023/1130/17013325342201.jpg.webp</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
@@ -761,14 +761,14 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>Bvlgari Man in Black EDP 60ml น้ำหอมสำหรับผู้ชาย จากบุลการี มีกลิ่นหอมที่น่าดึงดูดแสดงถึงความเย้ายวน ความหรูหรา ความซับซ้อนของเพศชาย ซึ่งมีกลิ่นสัมผัสที่คาดไม่ถึง</t>
+          <t>Nu Formula Mineral Cleansing Water For Sensitive Skin 510ml คลีนซิ่งวอเตอร์ อันดับ 1 สำหรับผิวแพ้ง่ายที่ผู้ใช้พึงพอใจและบอกต่อมากที่สุด ทำความสะอาดหมดจดโดยไม่ต้องล้างออก บิวตี้บล็อคเกอร์กว่า 100 คนที่ได้ลองใช้ต่างแนะนำ</t>
         </is>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>1716265655-15</t>
+          <t>1717926533-15</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/propolinse/propolinse-premium-mouthwash-600ml-78152.html</t>
+          <t>https://www.konvy.com/nars/nars-light-reflecting-pressed-setting-powder-10g-crystal-73299.html</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/1018/16660919138565.jpg</t>
+          <t/>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
@@ -808,14 +808,14 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>PROPOLINSE Premium Mouthwash 600ml น้ำยาบ้วนปากโพรโพลินส์ นวัตกรรมใหม่คิดค้นจากประเทศญี่ปุ่น สูตรพรีเมี่ยม ปราศจากแอลกอฮอล์ ช่วยขจัดแบคทีเรียในช่องปากได้ถึง 99.9% และดูแลช่องปากอย่างมีประสิทธิภาพ</t>
+          <t>NARS Light Reflecting Pressed Setting Powder 10g #Crystal ล็อคเมคอัพให้เป๊ะปัง ด้วยแป้งอัดแข็งเนื้อบางเบา จากนาร์ส ช่วยเพิ่มประสิทธิภาพการสะท้อนแสงบนผิว และช่วยควบคุมความเปล่งปลั่งตลอดทั้งวัน เหมาะสำหรับการทัชอัพในช่วงกลางวัน</t>
         </is>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>1716265658-16</t>
+          <t>1717926536-16</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/bobbi-brown/bobbi-brown-gua-sha-stone-75990.html</t>
+          <t>https://www.konvy.com/gravich/gravich-triple-vitamin-c-booster-serum-30ml-48037.html</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/0908/16626265256214.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0101/17040420033552.jpg.webp</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
@@ -855,14 +855,14 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>Bobbi Brown Gua Sha Stone กัวซาสำหรับนวดผิวหน้า จากบ็อบบี้ บราวน์ ทำจากหิน Rose Quartz รูปทรงหัวใจ มีความแข็งแรง ถูกออกแบบมาให้จับถนัดมือ ช่วยนวดผ่อนคลายผิว กระตุ้นกล้ามเนื้อให้แลดูกระชับ เพื่อผิวที่แลดูเปล่งปลั่งสุขภาพดี</t>
+          <t>GRAVICH Triple Vitamin C Booster Serum 30ml ย้อนวัยให้ผิวอ่อนเยาว์กระจ่างใสด้วยเซรั่มวิตามินซีเข้มข้น จากกราวิช ช่วยกระตุ้นให้ชั้นผิว epidermis ผลัดเซลล์อย่างอ่อนโยน เพื่อผิวเปล่งปลั่ง ริ้วรอย รอยด่างดำดูจางลง พร้อมเสริมสร้างกระตุ้นกระบวนการสร้างคอลลาเจน ผสานสารต้านอนุมูลอิสระสูง ให้ผิวแข็งแรงสว่างใส</t>
         </is>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>1716265661-17</t>
+          <t>1717926538-17</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>ฟรี</t>
+          <t/>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/eucerin/eucerin-spotless-brightening-booster-serum-30ml-59573.html</t>
+          <t>https://www.konvy.com/lancome/lancome-advanced-genifique-youth-activating-concentrate-7ml-3899.html</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/1231/17040415741268.jpg</t>
+          <t>https://s2.konvy.com/static/team/2021/0514/16209958446414.jpg.webp</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>Eucerin Spotless Brightening Booster Serum 30ml นวัตกรรมเซรั่มลดจุดด่างดำอันดับ 1 จากยูเซอริน ด้วยเทคโนโลยีไมโคร ทาร์เก็ต ซึมซาบล้ำลึกสู่ชั้นผิว ผสาน THIAMIDOL ช่วยลดฝ้าแดดหนาลึกและจุดด่างดำที่ต้นตอได้ดี และ HYALURON เพื่อผิวอิ่มฟู ดูโกลว์ใส เปล่งประกาย</t>
+          <t>Lancome Advanced Genifique Youth Activating Concentrate 7ml ปรับสมดุลเพื่อผิวที่แข็งแรง และสวยอย่างที่เคย ด้วยเซรั่มจากลังโคม พร้อมฟื้นบำรุงอย่างรวดเร็ว มอบผิวที่อ่อนเยาว์ให้แก่คุณอีกครั้ง</t>
         </is>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>1716265665-18</t>
+          <t>1717926540-18</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -929,17 +929,17 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>ฟรี</t>
+          <t/>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/bioderma/%5b%e0%b9%81%e0%b8%9e%e0%b9%87%e0%b8%84%e0%b8%84%e0%b8%b9%e0%b9%88%5d-bioderma-sensibio-h2o-cleansing-500ml-14863.html</t>
+          <t>https://www.konvy.com/the-ordinary/the-ordinary-aha-30-%2b-bha-2-peeling-solution-30ml-24341.html</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0101/17040426648129.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0601/16855877937330.jpg.webp</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
@@ -949,14 +949,14 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>[แพ็คคู่] Bioderma Sensibio H2O Cleansing 500ml คลีนซิ่งไบโอมิเมติก ไมเซล่าวอเตอร์ คลีนซิ่งสูตรอ่อนโยน สำหรับผิวบอบบางแพ้ง่าย ทำความสะอาดล้ำลึกและอ่อนโยน เพราะ ผิวต้องเจอการเสียดสี เครื่องสำอาง ฝุ่น PM2.5 รวมถึงเหงื่อและแบคทีเรียที่คอยกระตุ้นให้เกิดสิวผิวแพ้</t>
+          <t>The Ordinary AHA 30% + BHA 2% Peeling Solution 30ml พีลลิ่งดิ ออดินารี่ ตัวเด็ดจากอังกฤษที่เหล่าบล็อกเกอร์ต่างประเทศใช้กันทุกคลิป! ช่วยกำจัดสิ่งสกปรกได้ดีสุดๆ ลดการอุดตันและสิว ริ้วรอยดูจางลง ปรับผิวให้สว่างใส พร้อมเติมความชุ่มชื้นให้กับผิว</t>
         </is>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>1716265667-19</t>
+          <t>1717926543-19</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/la-mer/la-mer-the-treatment-lotion-30ml-%5bno-box%5d-91682.html</t>
+          <t>https://www.konvy.com/la-roche-posay/la-roche-posay-effaclar-duo%2bm-40ml-91629.html</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/1108/16994194403649.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/1231/17040396863841.jpg.webp</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
@@ -996,14 +996,14 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>La Mer the Treatment Lotion 30ml [no box] เพื่อการบำรุงขั้นตอนต่อไปดูแลด้วยโลชั่นบำรุงผิวสูตรน้ำ จากลาแมร์ มอบความรู้สึกมีชีวิตชีวาให้แก่ผิวด้วย Liquid Energy ที่ช่วยให้ผลิตภัณฑ์ซึมลงสู่ผิวอย่างรวดเร็ว ให้ความชุ่มชื้น มอบผิวแลดูนุ่มเรียบเนียนสม่ำเสมอ</t>
+          <t>La Roche Posay Effaclar DUO+M 40ml มอยเจอร์ไรเซอร์สูตรสำหรับผิวมันมีแนวโน้มเป็นสิวง่าย จากลา โรช-โพเซย์ ช่วยลดปัญหาสิว ช่วยให้รอยดำรอยแดงจากสิว แลดูลดเลือนลงและลดโอกาสสิวเกิดซ้ำ ผ่านการทดสอบแล้วว่ามีประสิทธิภาพแต่ยังอ่อนโยนต่อผิว ไม่ก่อให้เกิดการอุดตัน</t>
         </is>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>1716265670-20</t>
+          <t>1717926545-20</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -1028,12 +1028,12 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/skintific/skintific-mugwort-anti-pores-%26-acne-clay-stick-40g-96470.html</t>
+          <t>https://www.konvy.com/estee-lauder/estee-lauder-revitalizing-supreme%2b-youth-power-soft-creme-15ml-73205.html</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0412/17128907257513.jpg</t>
+          <t>https://s2.konvy.com/static/team/2022/0621/16557799473929.jpg.webp</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
@@ -1043,14 +1043,14 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>SKINTIFIC Mugwort Anti Pores &amp; Acne Clay Stick 40g มาสก์โคลนแบบแท่ง จากสกินทิฟิค มีส่วนประกอบจิงจูฉ่าย ช่วยดูแลปัญหาสิว ผสาน Niacinamide, Salicylic Acid และ Centella ช่วยควบคุมความมันส่วนเกิน ทำความสะอาดรูขุมขนได้อย่างล้ำลึก และปลอบประโลมผิว</t>
+          <t>Estee Lauder Revitalizing Supreme+ Youth Power Soft Creme 15ml มอยส์เจอไรเซอร์เนื้อบางเบา จากเอสเต ลอเดอร์ ที่ช่วยเสริมประสิทธิภาพของคอลลาเจน และส่วนผสมใหม่อันทรงพลัง EXCLUSIVE HIBISCUS-8 FRACTION และ EXCLUSIVE MORINGA EXTRACT</t>
         </is>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>1716265674-21</t>
+          <t>1717926548-21</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -1075,12 +1075,12 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/konvy/konvy-facial-cotton-150pcs-74722.html</t>
+          <t>https://www.konvy.com/konvy/konvy-portable-retro-bluetooth-speaker-pink-83240.html</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0601/16855880977313.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0516/16842054217986.jpg.webp</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
@@ -1090,14 +1090,14 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>Konvy Facial Cotton 150pcs เพื่อการดูแลผิวในทุกๆ วันกับสำลีแผ่นนบาง เพื่อผิวหน้าโดยเฉพาะ จากคอนวี่ ผลิตจากวัสดุธรรมชาติ ผิวสัมผัสนุ่ม ละเอียด ไม่เป็นขุย อ่อนโยน ถนอมผิว ไม่ทำให้ระคายเคือง</t>
+          <t>Konvy Portable Retro Bluetooth Speaker #Pink ย้อนยุคย้อนใจไปช่วง 1950 กับลำโพงบลูทูธแบบพกพา สีชมพู โดดเด่นดีไซน์วินเทจไม่ซ้ำใคร! จากคอนวี่ มอบเสียงที่ดังและคมชัด ได้ทั้งความสวยงามและสะดวกสบายในการพกพาไปทำกิจกรรม เหมาะสำหรับตกแต่งหรือสะสม</t>
         </is>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>1716265677-22</t>
+          <t>1717926550-22</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/mizumi/mizumi-b3-aha-intense-white-body-booster-250g-80698.html</t>
+          <t>https://www.konvy.com/in2it/in2it-primer%2b%2b-15g-pmp-98196.html</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/1230/16723909419604.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0530/17170624152346.jpg.webp</t>
         </is>
       </c>
       <c r="H23" s="1" t="inlineStr">
@@ -1137,14 +1137,14 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>Mizumi B3 AHA Intense White Body Booster 250g กู้ผิวพังให้ปังเวอร์ด้วยเซรั่มผิวกายผิวสว่างใสดุจเซรั่มหน้า จากมิซึมิ ด้วยวิตามินบี 3 และ AHA เข้มข้น ช่วยบำรุงผิวล้ำลึก เสริมชั้นผิว พร้อมปรับผิวให้เรียบเนียน กระจ่างใส</t>
+          <t>In2It Primer++ 15g #PMP ไพรเมอร์เนื้อกำมะหยี่บางเบา จากอินทูอิท ช่วยอำพรางรูขุมขน ใบหน้าดูเรียบนวลเนียนผุดผ่อง ช่วยให้เครื่องสำอางติดทนนานตลอดทั้งวัน</t>
         </is>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>1716265681-23</t>
+          <t>1717926552-23</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>ฟรี</t>
+          <t/>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/eucerin/eucerin-sun-dry-touch-acne-oil-control-face-spf50%2b-pa%2b%2b%2b%2b%c2%a050ml-28213.html</t>
+          <t>https://www.konvy.com/kiehls/kiehl%27s-clearly-corrective-dark-spot-solution-50ml-%28-%e0%b8%aa%e0%b8%b4%e0%b8%99%e0%b8%84%e0%b9%89%e0%b8%b2%e0%b8%ab%e0%b8%a1%e0%b8%94%e0%b8%ad%e0%b8%b2%e0%b8%a2%e0%b8%b8-%3a-2025.03.01-%29--29210.html</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/1004/16648525364077.jpg</t>
+          <t>https://s2.konvy.com/static/team/2022/0505/16517376045761.jpg.webp</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
@@ -1184,14 +1184,14 @@
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>Eucerin Sun Dry Touch Acne Oil Control Face SPF50+ PA++++ 50ml กันแดดสูตรควบคุมความมัน เพื่อผิวมันเป็นสิวง่าย จากยูเซอริน คุมความมันนานถึง 12 ชั่วโมง ปกป้องทุกรังสีทั้ง UVA/UVB ลดสาเหตุสิว ฝ้าแดดฝังลึกอย่างมีประสิทธิภาพ</t>
+          <t>Kiehl's Clearly Corrective Dark Spot Solution 50ml เซรั่มลดเลือนจุดด่างดำที่ฮอตที่สุด จากคีลส์ จัดการรอยดำจากสิว ปรับสีผิวให้ดูสว่างและสม่ำเสมอ พร้อมผสานพลังการฟื้นฟูผิวจากวิตามินซีสกัด ช่วยผลัดเซลล์ผิวเก่า เผยผิวใหม่อย่างอ่อนโยน ( สินค้าหมดอายุ : 2025.03.01 )</t>
         </is>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1716265683-24</t>
+          <t>1717926555-24</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/dior/dior-miss-dior-blooming-bouquet-edt-5ml-%5bnew-version%5d-84189.html</t>
+          <t>https://www.konvy.com/puricas/puricas-dragon%27s-bloold-scar-gel-3g-93599.html</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0517/16843164648521.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0105/17044250128902.jpg.webp</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
@@ -1231,14 +1231,14 @@
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>Dior Miss Dior Blooming Bouquet EDT 5ml [New Version] เติมความสดใสมีชีวิตชีวาด้วยน้ำหอมสำหรับผู้หญิงที่ให้ความสดชื่นบางเบาจากดิออร์ รังสรรค์ขึ้นดุจกลิ่นหอมอ่อนๆ จากช่อดอกไม้ที่เพิ่งผลิบาน ให้ความรู้สึกราวกับ Miss Dior ผู้สดใสและพราวเสน่ห์ได้กลับมายืนอยู่ตรงนี้</t>
+          <t>Puricas Dragon's Bloold Scar Gel 3g เจลแผลเป็นจากสารสกัดดราก้อนบลัด จากเพียวริก้าส์ ช่วยฟื้นบำรุงผิวที่ถูกทำลาย สมานผิว และรอยแผล พร้อมลดเลือนรอยดำ และรอยแดงที่เกิดจากสิว</t>
         </is>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1716265686-25</t>
+          <t>1717926557-25</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>ฟรี</t>
+          <t/>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/yves-rocher/yves-rocher-anti-dandruff-with-organic-peppermint-treatment-shampoo-300ml-89748.html</t>
+          <t>https://www.konvy.com/atopalm/atopalm-soothing-gel-lotion-120ml-81644.html</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0905/16939117033091.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0213/16762754524417.jpg.webp</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
@@ -1278,14 +1278,14 @@
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>Yves Rocher Anti-Dandruff With Organic Peppermint Treatment Shampoo 300ml แชมพู จากอีฟ โรเช ขจัดปัญหารังแคเรื้อรังพร้อมป้องกันการเกิดซ้ำด้วยออแกนิคเปปเปอร์มินต์วอเตอร์จากลากาซิลี่และส่วนผสมจากธรรมชาติ 94% ปราศจากซัลเฟตและซิลิโคน</t>
+          <t>ATOPALM Soothing Gel Lotion 120ml โลชั่นบำรุงผิวหน้าและผิวกายสูตร MLEâ (Multi Lamellar Emulsion) จากอโทปาล์ม ช่วยเสริมความแข็งแรงของผิวชั้นนอก ให้ผิวคงความชุ่มชื่นได้ยาวนานถึง 48 ชั่วโมง ด้วยเซราไมด์สิทธิบัตรของนีโอฟาร์ม อะมิโน แอซิด 5 ชนิด และไฮยาลูรอนิค</t>
         </is>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>1716265688-26</t>
+          <t>1717926559-26</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/skintific/skintific-5x-ceramide-barrier-moisturizer-gel-80g-96455.html</t>
+          <t>https://www.konvy.com/clarins/clarins-double-serum-complete-age-control-concentrate-50ml-23312.html</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0412/17128910475963.jpg</t>
+          <t>https://s2.konvy.com/static/team/2018/0104/15150379915494.jpg.webp</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
@@ -1325,14 +1325,14 @@
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>SKINTIFIC 5X Ceramide Barrier Moisturizer Gel 80g มอยส์เจอไรเซอร์เนื้อสัมผัสบางเบา จากสกินทิฟิค มอบความชุ่มชื้นสูง ด้วยเซราไมด์ช่วยเสริมเกราะป้องกันผิว ผสานกรดไฮยาลูโรนิค ใบบัวบก และคอลลาเจนจากทะเล ทำให้ผิวแข็งแรง</t>
+          <t>Clarins Double Serum Complete Age Control Concentrate 50ml ยืนหนึ่งเรื่องผิวอ่อนเยาว์ ด้วยเซรั่มลดเลือนริ้วรอยเข้มข้นประสิทธิภาพสูง จากคลาแรงส์ ด้วยสารสกัดจากขมิ้นและพืชธรรมชาติ 20 ชนิด ช่วยรับมือกับสัญญาณแห่งวัยได้ครบครัน! ลดเลือนสัญญาณแห่งความร่วงโรยของผิวที่เห็นเด่นชัด คืนความกระจ่างใสและเต่งตึง ให้ผิวคงความอ่อนเยาว์ได้อย่างยาวนาน</t>
         </is>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>1716265694-27</t>
+          <t>1717926562-27</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/biotherm/biotherm-life-plankton-clear-essence-200ml-33721.html</t>
+          <t>https://www.konvy.com/lancome/lancome-miracle-edp-100ml-84665.html</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0124/17060937515463.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0517/16843090165452.jpg.webp</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
@@ -1372,14 +1372,14 @@
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>Biotherm LIfe Plankton Clear Essence 200ml สูตรใหม่! น้ำตบแพลงก์ตอน จากไบโอเธิร์ม เนื้อสัมผัสบางเบาดุจน้ำ ซึมซาบเร็ว ประกอบด้วยไลฟ์ แพลงก์ตอนความเข้มข้น 5% ช่วยให้ผิวดูกระจ่างใส รูขุมขนกระชับขึ้น ดุจผิวใหม่ดูอ่อนเยาว์</t>
+          <t>Lancome Miracle EDP 100ml น้ำหอมผู้หญิงสุดคลาสสิค สร้างความประทับใจมายาวนาน จากลังโคม กลิ่นหอมดอกไม้ที่เย้ายวนและเผ็ดร้อน ช่วยเติมความสดชื่นให้รุ่งอรุณวันใหม่สดใสเปล่งประกาย Life is Miracle!!</t>
         </is>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>1716265696-28</t>
+          <t>1717926564-28</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -1404,12 +1404,12 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/the-ordinary/the-ordinary-alpha-arbutin-2-%2b-ha-serum-30ml-24342.html</t>
+          <t>https://www.konvy.com/gravich/gravich-retinol-complex-concentrate-serum-30ml-87752.html</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2023/0706/16886378138566.jpg.webp</t>
         </is>
       </c>
       <c r="H29" s="1" t="inlineStr">
@@ -1419,14 +1419,14 @@
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>The Ordinary Alpha Arbutin 2% + HA Serum 30ml เซรั่มสูตรน้ำที่ออกแบบมาโดยเฉพาะเพื่อลดเลือนจุดด่างดำและสีผิวไม่สม่ำเสมอ ผสานความเข้มข้นสูงของอัลฟ่าอาร์บูตินบริสุทธิ์เข้ากับกรดไฮยาลูโรนิก ลดเลือนจุดด่างดำ เนื้อเซรั่มซึมซาบเร็ว ช่วยให้ผิวแลดูกระจ่างใส รอยสิวดูจางลง ผิวดูสุขภาพดี</t>
+          <t>Gravich Retinol Complex Concentrate Serum 30ml บอกลาริ้วรอยด้วยเซรั่มวิตามินเอทางเลือก สูตรออกแบบมาเพื่อคนที่มีปัญหาผิว ริ้วรอย ผิวแพ้ง่ายใช้ได้ โดยใช้กลุ่มของอนุพันธ์ Retinol ทั้ง 3 รูปแบบในความเข้มข้น 1.7% Retinoids Complex ในอัตราส่วนพิเศษสูงสุดเฉพาะของกราวิช</t>
         </is>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>1716265699-29</t>
+          <t>1717926567-29</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/tsubaki/tsubaki-premium-ex-repair-mask-180g-47164.html</t>
+          <t>https://www.konvy.com/nu-formula/nu-formula-oil-purifying-cleansing-water-510ml-45010.html</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0719/16897412477203.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/1116/17001136228149.jpg.webp</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>Tsubaki Premium EX Repair Mask 180g เผยผมดูสวยเปล่งประกายด้วยมาสก์บำรุงเส้นผมชนิดล้างออกนวัตกรรมใหม่จากซึบากิ อุดมคุณค่าคามิเลียออยล์, โปรตีนไข่มุก และรอยัล เจลลี่ ผสานนวัตกรรมที่ช่วยซึมซาบสารบำรุงเข้าสู่เส้นผมได้อย่างล้ำลึก พร้อมกักเก็บสารบำรุงในผมเส้นต่อเส้น จึงช่วยบำรุงให้ผมดูสวยสุขภาพดี ดุจได้รับการปรนนิบัติจากซาลอน</t>
+          <t>Nu Formula Oil Purifying Cleansing Water 510ml ตัดจบทุกวงจรสิว! ด้วยคลีนซิ่งไมเซลล่า สำหรับผิวผสม-ผิวมัน จากนู ฟอร์มูล่า ลบเมคอัพและความมันออกอย่างล้ำลึกตั้งแต่แผ่นแรก ทำความสะอาดโดยไม่ทำลายสารเคลือบผิวธรรมชาติ พร้อมเติมความชุ่มชื้นด้วย Hyaluron ทำให้ผิวไม่แห้งตึง ใช้ต่อเนื่องรู้สึกสิวน้อยลง</t>
         </is>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>1716265701-30</t>
+          <t>1717926569-30</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1493,17 +1493,17 @@
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>ฟรี</t>
+          <t/>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/eucerin/eucerin-b1g1-radiance-lift-3d-serum-30ml-%2b-elascity-night-cream-50ml-%5bfree%21-eye-cream-spf20-15ml%5d-93523.html</t>
+          <t>https://www.konvy.com/estee-lauder/estee-lauder-advanced-night-repair-synchronized-multi-recovery-complex-7ml-51998.html</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/1219/17029795063611.jpg</t>
+          <t/>
         </is>
       </c>
       <c r="H31" s="1" t="inlineStr">
@@ -1513,14 +1513,14 @@
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>Eucerin B1G1 Radiance-Lift 3D Serum 30ml + Elascity Night Cream 50ml [Free! Eye Cream SPF20 15ml] เซทผลิตภัณฑ์บำรุงผิวหน้า จากยูเซอริน ด้วยไฮยาลูรอน ช่วยเติมริ้วรอยลึก ช่วยให้ผิวยืดหยุ่น กระชับ ดูอ่อนเยาว์ ฟรี! ผลิตภัณฑ์บำรุงผิวรอบดวงตา</t>
+          <t>Estee Lauder Advanced Night Repair Synchronized Multi-Recovery Complex 7ml เซรั่มสูตรก้าวล้ำ จากเอสเต ลอเดอร์ ด้วยเทคโนโลยี ChronoluxTM Power Signal ช่วยฟื้นบำรุงเส้นริ้วให้แลดูจางลง เพิ่มประสิทธิภาพเพื่อผิวที่รู้สึกเต่งตึงกว่าที่เคย เนื้อเซรั่มบางเบาซึมเข้าสู่ผิวได้อย่างรวดเร็ว ตรงเข้าช่วยลดเลือนสัญญาณผิวดูร่วงโรยนานาประการ เพื่อผิวแลดูสุขภาพดี อ่อนเยาว์ และมีชีวิตชีวาขึ้น</t>
         </is>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>1716265705-31</t>
+          <t>1717926571-31</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1540,17 +1540,17 @@
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>ฟรี</t>
+          <t/>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/swisse/swisse-astaxanthin-%2b-gluta-30-capsules-83583.html</t>
+          <t>https://www.konvy.com/vaseline/%5b%e0%b9%81%e0%b8%9e%e0%b9%87%e0%b8%84%e0%b8%84%e0%b8%b9%e0%b9%88%5d-vaseline-healthy-bright-gluta-hya-serum-burst-lotion-dewy-radiance-300ml-93312.html</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/1231/17040405963001.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0109/17047950014025.jpg.webp</t>
         </is>
       </c>
       <c r="H32" s="1" t="inlineStr">
@@ -1560,14 +1560,14 @@
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>SWISSE Astaxanthin + Gluta 30 Capsules ผลิตภัณฑ์เสริมอาหารแอสต้าแซนธินและกลูต้า 30 เม็ด สูตรคุณภาพ ที่มีแอสต้าแซนธิน 6 มก. แอล-กลูต้าไธโอน 50 มก.,วิตามินซี 20 มก., วิตามินอี 7.5ไอยู, นิโคตินาไมด์ 5 มก.</t>
+          <t>[แพ็คคู่] Vaseline Healthy Bright Gluta-Hya Serum Burst Lotion Dewy Radiance 300ml โลชั่นบำรุงผิวกาย จากวาสลีน เนื้อบางเบา แตกตัวเป็นน้ำ ซึมเข้าสู่ผิว ไม่เหนียวเหนอะหนะ ให้ผิวดูกระจ่างใส ฉ่ำโกลว์</t>
         </is>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>1716265707-32</t>
+          <t>1717926574-32</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/cerave/cerave-resurfacing-retinol-serum-30ml-94006.html</t>
+          <t>https://www.konvy.com/nu-formula/nu-formula-derma-facial-cotton-200pcs-23819.html</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0116/17053803728459.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0101/17040424475209.jpg.webp</t>
         </is>
       </c>
       <c r="H33" s="1" t="inlineStr">
@@ -1607,14 +1607,14 @@
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>CeraVe Resurfacing Retinol Serum 30ml มูฟออนรอยสิวสู่ผิวเรียบเนียนกับผลิตภัณฑ์บำรุงผิวหน้าสำหรับผู้มีปัญหารอยดำรอยสิว จากเซราวี เสริมปราการผิวให้แข็งแรง สู่ผลลัพธ์ผิวเรียบเนียน แลดูสม่ำเสมอ อีกทั้งปราศจากน้ำหอมและพาราเบน ผิวบอบบางสามารถใช้ได้</t>
+          <t>Nu Formula Derma Facial Cotton 200pcs สำลีที่เข้าใจผู้หญิง ที่คัดสรรใยฝ้ายที่ดีที่สุดทั่วมุมโลก เนื้อนุ่มพิเศษ ไม่บาดผิว ถนอมผิวหน้า ช่วยเช็ดล้างเครื่องสำอางบนใบหน้าได้อย่างหมดจดอ่อนโยน</t>
         </is>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>1716265711-33</t>
+          <t>1717926576-33</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/gravich/gravich-triple-vitamin-c-booster-serum-30ml-48037.html</t>
+          <t>https://www.konvy.com/oni/oni-multi-functional-makeup-brush-set-smoky-rose-%5b10pcs%5d-65331.html</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0101/17040420033552.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0329/16800770672318.jpg.webp</t>
         </is>
       </c>
       <c r="H34" s="1" t="inlineStr">
@@ -1654,14 +1654,14 @@
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>GRAVICH Triple Vitamin C Booster Serum 30ml ย้อนวัยให้ผิวอ่อนเยาว์กระจ่างใสด้วยเซรั่มวิตามินซีเข้มข้น จากกราวิช ช่วยกระตุ้นให้ชั้นผิว epidermis ผลัดเซลล์อย่างอ่อนโยน เพื่อผิวเปล่งปลั่ง ริ้วรอย รอยด่างดำดูจางลง พร้อมเสริมสร้างกระตุ้นกระบวนการสร้างคอลลาเจน ผสานสารต้านอนุมูลอิสระสูง ให้ผิวแข็งแรงสว่างใส</t>
+          <t>Oni Multi Functional Makeup Brush Set #Smoky Rose [10pcs] ให้คุณลงเมคอัพได้สวยเป๊ะครบทุกขั้นตอน ด้วยเซทแปรงแต่งหน้าสีชมพู 10 ชิ้น จากโอนิ ขนแปรงสังเคราะห์ มอบสัมผัสนุ่มนวล ไม่บาดหรือระคายเคืองผิว มาพร้อมกระเป๋าหนังสีชมพู</t>
         </is>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>1716265715-34</t>
+          <t>1717926579-34</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/anua/anua-heartleaf-77-soothing-toner-250ml-49595.html</t>
+          <t>https://www.konvy.com/sk-ii/sk-ii-facial-treatment-essence-30ml-%28-%e0%b8%aa%e0%b8%b4%e0%b8%99%e0%b8%84%e0%b9%89%e0%b8%b2%e0%b8%ab%e0%b8%a1%e0%b8%94%e0%b8%ad%e0%b8%b2%e0%b8%a2%e0%b8%b8-%3a-2025.03.03-%29--2349.html</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/1017/16975166198509.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0222/16770521617283.jpg.webp</t>
         </is>
       </c>
       <c r="H35" s="1" t="inlineStr">
@@ -1701,14 +1701,14 @@
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>ANUA Heartleaf 77% Soothing Toner 250ml โทนเนอร์สุดฮอตจากโลกทวิตเตอร์ที่ใครลองก็หลงรัก จากอานัว ช่วยปลอบประโลมผิวและลดการอักเสบ ด้วยสารสกัดฮาร์ทลีฟถึง 77% เนื้อสัมผัสบางเบา ปราศจากน้ำหอมและสารเคมีอันตราย เหมาะกับทุกสภาพผิว โดยเฉพาะผิวระคายเคือง เป็นสิวและผดผื่น</t>
+          <t>SK-II Facial Treatment Essence 30ml ผลิตภัณฑ์ยอดนิยมตลอดกาลกับเอสเซนส์ จาก SK-II ด้วยส่วนประกอบของ Pitera ช่วยปรับสมดุลผิว พร้อมผลัดเซลล์ผิวให้คุณสัมผัสผิวเนียนนุ่ม ชุ่มชื้น แลดูกระจ่างใสขึ้น ( สินค้าหมดอายุ : 2025.03.03 )</t>
         </is>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>1716265718-35</t>
+          <t>1717926581-35</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/the-ordinary/the-ordinary-niacinamide-10-%2b-zinc-1-30ml-26957.html</t>
+          <t>https://www.konvy.com/origins/origins-dr.andrew-weil-for-origins-mega-mushroom-relief-%26-resilience-soothing-treatment-lotion-%28new-advanced-formula%29-200ml-%28-%e0%b8%aa%e0%b8%b4%e0%b8%99%e0%b8%84%e0%b9%89%e0%b8%b2%e0%b8%ab%e0%b8%a1%e0%b8%94%e0%b8%ad%e0%b8%b2%e0%b8%a2%e0%b8%b8-%3a-2025.02.01-%29--75049.html</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2023/0407/16808390166100.jpg.webp</t>
         </is>
       </c>
       <c r="H36" s="1" t="inlineStr">
@@ -1748,14 +1748,14 @@
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>The Ordinary Niacinamide 10% + Zinc 1% 30ml เซรั่มสูตรน้ำ จากดิออดินารี่ ประกอบด้วยไนอะซินาไมด์ 10% และซิงค์ PCA 1% ช่วยเพิ่มความกระจ่างใสของผิว เพิ่มความเรียบเนียน และเสริมเกราะป้องกันผิว</t>
+          <t>Origins Dr.Andrew Weil For Origins Mega-Mushroom Relief &amp; Resilience Soothing Treatment Lotion (New Advanced Formula) 200ml ทรีตเมนต์โลชั่นสูตรใหม่ล่าสุดขายดีอันดับ 1 จากออริจินส์ เนื้อบางเบา ซึมซาบสู่ผิวได้อย่างล้ำลึกและรวดเร็ว เผยผิวดูเรียบเนียน ช่วยให้สีผิวดูสม่ำเสมอ บอกลาความหมองคล้ำ เผยผิวดูเปล่งประกาย ( สินค้าหมดอายุ : 2025.02.01 )</t>
         </is>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>1716265723-36</t>
+          <t>1717926583-36</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/joji-secret-young/joji-secret-young-charcoal-keratin-treatment-mask-300g-70359.html</t>
+          <t>https://www.konvy.com/shiseido/shiseido-perfect-uv-protector-spf50%2b-pa%2b%2b%2b%2b-wetforce-multi-defense-50ml15678-27078.html</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0304/17095225298396.jpg</t>
+          <t>https://s2.konvy.com/static/team/2022/0901/16620022228203.jpg.webp</t>
         </is>
       </c>
       <c r="H37" s="1" t="inlineStr">
@@ -1795,14 +1795,14 @@
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>JOJI Secret Young Charcoal Keratin Treatment Mask 300g ทรีทเมนท์หมักผมเคราติน จากโจจิ ซีเครท ยัง ช่วยฟื้นฟูผมเสียให้นุ่มลื่น เงางาม เนื้อชาร์โคลช่วยดีท็อกซ์สารเคมีในเส้นผมที่ตกค้าง ผสานคุณค่าจากธรรมชาติช่วยปรับผมให้มีน้ำหนัก จัดทรงง่าย และลดการหลุดร่วง</t>
+          <t>Shiseido Perfect UV Protector SPF50+ PA++++ Wetforce Multi Defense 50ml#15678 กันแดดสูตรใหม่ จากชิเซโด้ เพิ่มประสิทธิภาพในการปกป้องผิวจากรังสี UV เมื่อสัมผัสน้ำและเหงื่อ ไม่เหนียวเหนอะหนะ ให้คุณเต็มที่กับกิจกรรมกลางแจ้งได้อย่างไร้กังวล</t>
         </is>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>1716265726-37</t>
+          <t>1717926586-37</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/the-ordinary/the-ordinary-retinol-1-in-squalane-30ml-67168.html</t>
+          <t>https://www.konvy.com/mizumi/mizumi-uv-water-serum-spf50%2bpa%2b%2b%2b%2b-40g-31292.html</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2021/0430/16197760966662.jpg.webp</t>
         </is>
       </c>
       <c r="H38" s="1" t="inlineStr">
@@ -1842,14 +1842,14 @@
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>The Ordinary Retinol 1% in Squalane 30ml เซรั่มบำรุงผิว จากดิ ออดินารี ประกอบด้วยเรตินอลบริสุทธิ์ 1% ที่มีความเสถียรสูง ช่วยลดเลือนริ้วรอย ปรับผิวให้เรียบเนียน กระชับรูขุมขน เผยผิวกระจ่างใส และสีผิวให้ดูสม่ำเสมอ</t>
+          <t>Mizumi UV Water Serum SPF50+/PA++++ 40g ครีมกันแดดสูตรน้ำสำหรับผิวแพ้ง่าย ปกป้องสูงสุด แต่อ่อนโยนดุจน้ำ จากมิซึมิ หลอดสีฟ้าสำหรับใช้ทุกวัน เนื้อสัมผัสบางเบา ไม่เหนียวเหนอะหนะ ไม่ทิ้งคราบหลังเซทตัว ช่วยสะท้อนรังสี UVA1/UVA2/UVB ออกจากผิว สามารถใช้ได้ทุกคนในครอบครัว</t>
         </is>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>1716265728-38</t>
+          <t>1717926588-38</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/the-ordinary/the-ordinary-hyaluronic-acid-2-%2b-b5-30ml-32325.html</t>
+          <t>https://www.konvy.com/the-ordinary/the-ordinary-niacinamide-10-%2b-zinc-1-30ml-26957.html</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>https://s2.konvy.com/static/team/2023/0825/16929373538131.jpg.webp</t>
         </is>
       </c>
       <c r="H39" s="1" t="inlineStr">
@@ -1889,14 +1889,14 @@
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>The Ordinary Hyaluronic Acid 2% + B5 30ml บำรุงต่อ ไม่ต้องรอพรีออเดอร์! เติมความชุ่มชื้นถึงขีดสุด ด้วยเซรั่มเข้มข้นจากดิ ออดินารี ด้วยกรดไฮยาลูโรนิก 2% + B5 เพิ่มความชุ่มชื้น ทำให้ผิวเรียบเนียนและอวบอิ่มขึ้น</t>
+          <t>The Ordinary Niacinamide 10% + Zinc 1% 30ml เซรั่มสูตรน้ำ จากดิออดินารี่ ประกอบด้วยไนอะซินาไมด์ 10% และซิงค์ PCA 1% ช่วยเพิ่มความกระจ่างใสของผิว เพิ่มความเรียบเนียน และเสริมเกราะป้องกันผิว</t>
         </is>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>1716265732-39</t>
+          <t>1717926591-39</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/the-ordinary/the-ordinary-niacinamide-10%2bzinc-1-60ml-54517.html</t>
+          <t>https://www.konvy.com/cosrx/cosrx-advanced-snail-96-mucin-power-essence-100ml-65926.html</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
@@ -1936,14 +1936,14 @@
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>The Ordinary Niacinamide 10%+Zinc 1% 60ml เซรั่มเนื้อสัมผัสแบบน้ำ บางเบา ซึมซาบเร็ว จากดิ ออดินารี มีส่วนผสมของวิตามินบี 3 และซิงค์ ช่วยลดเลือนริ้วรอย รอยแดงรอยดำจากสิว กระชับรูขุมขน พร้อมควบคุมความมันบนใบหน้า</t>
+          <t>COSRX Advanced Snail 96 Mucin Power Essence 100ml เอสเซนส์เมือกหอยทากเกาหลี จากคอสอาร์เอ็กซ์ อุดมไปด้วยสารสกัดจากเมือกหอยทาก 96% ปกป้องและเติมเต็มความชุ่มชื้นภายในผิว ฟื้นฟูผิวให้เรียบเนียนสดใส</t>
         </is>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>1716265734-40</t>
+          <t>1717926593-40</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1963,17 +1963,17 @@
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>ฟรี</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/gravich/gravich-retinol-complex-concentrate-serum-30ml-87752.html</t>
+          <t>https://www.konvy.com/nivea/nivea-extra-white-repair-%26-protect-lotion-525ml-61163.html</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0706/16886378138566.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0505/16832675432325.jpg.webp</t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
@@ -1983,14 +1983,14 @@
       </c>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>Gravich Retinol Complex Concentrate Serum 30ml บอกลาริ้วรอยด้วยเซรั่มวิตามินเอทางเลือก สูตรออกแบบมาเพื่อคนที่มีปัญหาผิว ริ้วรอย ผิวแพ้ง่ายใช้ได้ โดยใช้กลุ่มของอนุพันธ์ Retinol ทั้ง 3 รูปแบบในความเข้มข้น 1.7% Retinoids Complex ในอัตราส่วนพิเศษสูงสุดเฉพาะของกราวิช</t>
+          <t>NIVEA Extra White Repair &amp; Protect Lotion 525ml เพื่อผิวกระจ่างใสไม่กลับมาคล้ำเสียอีกกับโลชั่นบำรุงผิวกาย จากนีเวีย ด้วยเทคโนโลยี Deep White Essence ไวท์เทนนิ่งสกัดอนุภาคเล็ก ผสานยูวี ฟิลเตอร์ SPF30 ฟื้นบำรุงผิวคล้ำเสียสะสมได้ลึกถึงเซลล์ผิว ช่วยปกป้องผิวจากการทำร้ายของแสงแดด</t>
         </is>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>1716265737-41</t>
+          <t>1717926595-41</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -2009,6 +2009,66 @@
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #02 Unique Orange
+            4.7 / 5.0
+                                                        ฿89
+                                                    - 44%
+        ฿159</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-02-unique-orange-71150.html</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491541985944.jpg.webp</t>
+        </is>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>&lt;li title="#01" onmouseover="relatedOption(71149)" onmouseout="relatedOption(71150)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-01-unique-pink-71149.html')" title="#01" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0330/16801666097798.jpg" alt="#01"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li class="active" selected="" title="#02" onmouseover="relatedOption(71150)" onmouseout="relatedOption(71150)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-02-unique-orange-71150.html')" title="#02" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0330/16801666048816.jpg" alt="#02"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="inlineStr">
+        <is>
+          <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #02 Unique Orange พาเลทอายแชโดว์ 4 สี 3 เนื้อ จากศศิ พกพาง่าย โดดเด่นและเป็นตัวเองได้ทุกลุค ทั้งกลางวันและกลางคืน มีทั้งเนื้อแมท ชิมเมอร์ และเจลลี่ผสมกลิตเตอร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>1717926598-42</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/list/eyeshadow/?filter_params=-1:2998</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>"SASI、อายแชโดว์"</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
         <is>
           <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #01 Unique Pink
             4.8 / 5.0
@@ -2017,17 +2077,17 @@
         ฿159</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F43" s="1" t="inlineStr">
         <is>
           <t>https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-01-unique-pink-71149.html</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H42" s="1" t="inlineStr">
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491541651133.jpg.webp</t>
+        </is>
+      </c>
+      <c r="H43" s="1" t="inlineStr">
         <is>
           <t>&lt;li class="active" selected="" title="#01" onmouseover="relatedOption(71149)" onmouseout="relatedOption(71149)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-01-unique-pink-71149.html')" title="#01" class="ky-d ky-pointer"&gt;
@@ -2041,69 +2101,9 @@
                                     &lt;/li&gt;</t>
         </is>
       </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="I43" s="1" t="inlineStr">
         <is>
           <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #01 Unique Pink พาเลทอายแชโดว์ 4 สี 3 เนื้อ จากศศิ พกพาง่าย โดดเด่นและเป็นตัวเองได้ทุกลุค ทั้งกลางวันและกลางคืน มีทั้งเนื้อแมท ชิมเมอร์ และเจลลี่ผสมกลิตเตอร์</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>1716265739-42</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/list/eyeshadow/?filter_params=-1:2998</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>"SASI、อายแชโดว์"</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #02 Unique Orange
-            4.7 / 5.0
-                                                        ฿89
-                                                    - 44%
-        ฿159</t>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-02-unique-orange-71150.html</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2022/0405/16491541985944.jpg</t>
-        </is>
-      </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>&lt;li title="#01" onmouseover="relatedOption(71149)" onmouseout="relatedOption(71150)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-01-unique-pink-71149.html')" title="#01" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0330/16801666097798.jpg" alt="#01"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li class="active" selected="" title="#02" onmouseover="relatedOption(71150)" onmouseout="relatedOption(71150)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-02-unique-orange-71150.html')" title="#02" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0330/16801666048816.jpg" alt="#02"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
-        <is>
-          <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #02 Unique Orange พาเลทอายแชโดว์ 4 สี 3 เนื้อ จากศศิ พกพาง่าย โดดเด่นและเป็นตัวเองได้ทุกลุค ทั้งกลางวันและกลางคืน มีทั้งเนื้อแมท ชิมเมอร์ และเจลลี่ผสมกลิตเตอร์</t>
         </is>
       </c>
     </row>
